--- a/Models/Model_5_matingao/ModelData.xlsx
+++ b/Models/Model_5_matingao/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>ROCK</t>
   </si>
@@ -277,21 +276,9 @@
     <t>co2_prod1</t>
   </si>
   <si>
-    <t>monitor_inj1</t>
-  </si>
-  <si>
-    <t>monitor_prod1</t>
-  </si>
-  <si>
     <t>co2_prod2</t>
   </si>
   <si>
-    <t>monitor_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod3</t>
-  </si>
-  <si>
     <t>co2_prod3</t>
   </si>
   <si>
@@ -334,9 +321,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>L-BFGS-B</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
@@ -347,6 +331,27 @@
   </si>
   <si>
     <t>maxiter</t>
+  </si>
+  <si>
+    <t>SLSQP</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>roughness</t>
   </si>
 </sst>
 </file>
@@ -417,51 +422,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dir"/>
-      <sheetName val="Layers"/>
-      <sheetName val="Rocks"/>
-      <sheetName val="BC"/>
-      <sheetName val="NS_Params"/>
-      <sheetName val="S1_Params"/>
-      <sheetName val="S2_Params"/>
-      <sheetName val="hist"/>
-      <sheetName val="CO2_S1_BC"/>
-      <sheetName val="CO2_S2_BC"/>
-      <sheetName val="Water_S1_BC"/>
-      <sheetName val="Water_S2_BC"/>
-      <sheetName val="Optimize"/>
-      <sheetName val="Options"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="B4">
-            <v>730.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,7 +690,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +720,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +758,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +811,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -924,7 +884,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-3.1688087814028951</v>
+        <v>-2.18749517</v>
       </c>
       <c r="I4" s="3">
         <v>-30</v>
@@ -937,13 +897,10 @@
       </c>
       <c r="L4" s="8">
         <f>SUM(L5:L7)</f>
-        <v>0.1</v>
+        <v>6.9032097576792004E-2</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -970,7 +927,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>1.5844043907014476</v>
+        <v>1.4894469700000001</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -982,18 +939,19 @@
         <v>6</v>
       </c>
       <c r="L5" s="8">
-        <v>0.05</v>
+        <f>O5/1000000000*(365.25*24*3600)</f>
+        <v>4.7003371700472002E-2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03</v>
+        <v>1.4894469699999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -1015,7 +973,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>1.5844043907014476</v>
+        <v>0.69804820000000001</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1027,18 +985,19 @@
         <v>6</v>
       </c>
       <c r="L6" s="8">
-        <v>0.05</v>
+        <f>O6/1000000000*(365.25*24*3600)</f>
+        <v>2.2028725876320002E-2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02</v>
+        <v>0.69804820000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -1072,6 +1031,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="8">
+        <f>O7/1000000000*(365.25*24*3600)</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -1159,7 +1119,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1206,7 +1166,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1211,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1273,7 +1233,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-3.1688087814028951</v>
+        <v>-2.18749517</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1284,12 +1244,12 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.1</v>
+        <v>6.9032097576792004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1311,7 +1271,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>1.5844043907014476</v>
+        <v>1.4894469700000001</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1322,12 +1282,12 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.05</v>
+        <v>4.7003371700472002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1349,7 +1309,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>1.5844043907014476</v>
+        <v>0.69804820000000001</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1360,12 +1320,12 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.05</v>
+        <v>2.2028725876320002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1408,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,48 +1383,45 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>1.5844043907014476</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1475,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1448,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -1499,7 +1456,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6">
         <v>0.3</v>
@@ -1507,13 +1464,100 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3">
+        <f>ABS(CO2_S2_BC!I4)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1801,7 +1845,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2361,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2656,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <f>B4</f>
@@ -2621,7 +2665,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2705,7 +2749,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2714,7 +2758,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2759,7 +2803,6 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <f>[1]S1_Params!B4</f>
         <v>730.5</v>
       </c>
     </row>
@@ -2799,7 +2842,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2808,7 +2851,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2824,7 +2867,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2854,7 +2897,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -2888,7 +2931,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -2922,7 +2965,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -2956,7 +2999,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -3050,7 +3093,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
